--- a/Projects/Federal Reserve Data/SUR2010-01-31-2020-02-29.xlsx
+++ b/Projects/Federal Reserve Data/SUR2010-01-31-2020-02-29.xlsx
@@ -16,16 +16,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
+    <t>FFR_CA</t>
+  </si>
+  <si>
     <t>LF_CA</t>
   </si>
   <si>
-    <t>FFR_CA</t>
+    <t>CA_FFR</t>
   </si>
   <si>
     <t>CA_LF</t>
-  </si>
-  <si>
-    <t>CA_FFR</t>
   </si>
   <si>
     <t>params</t>
@@ -414,16 +414,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.4868474009768672</v>
+        <v>0.05716633442687229</v>
       </c>
       <c r="C2">
-        <v>0.05716633442687229</v>
+        <v>0.4868474009768662</v>
       </c>
       <c r="D2">
-        <v>0.3511567374768887</v>
+        <v>14.02068439442374</v>
       </c>
       <c r="E2">
-        <v>14.02068439442373</v>
+        <v>0.3511567374768891</v>
       </c>
     </row>
     <row r="3" spans="1:5">
